--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_64ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_64ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1977,28 +1977,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>510.3622621593532</v>
+        <v>627.7571975958289</v>
       </c>
       <c r="AB2" t="n">
-        <v>698.3001626803635</v>
+        <v>858.9250924435784</v>
       </c>
       <c r="AC2" t="n">
-        <v>631.6553752245825</v>
+        <v>776.9504871297012</v>
       </c>
       <c r="AD2" t="n">
-        <v>510362.2621593532</v>
+        <v>627757.1975958289</v>
       </c>
       <c r="AE2" t="n">
-        <v>698300.1626803635</v>
+        <v>858925.0924435784</v>
       </c>
       <c r="AF2" t="n">
         <v>6.437990945579336e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.38151041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>631655.3752245825</v>
+        <v>776950.4871297012</v>
       </c>
     </row>
     <row r="3">
@@ -2083,28 +2083,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>275.4771709837492</v>
+        <v>353.785341146536</v>
       </c>
       <c r="AB3" t="n">
-        <v>376.9200185350211</v>
+        <v>484.0647116643921</v>
       </c>
       <c r="AC3" t="n">
-        <v>340.9473009766064</v>
+        <v>437.8662549722315</v>
       </c>
       <c r="AD3" t="n">
-        <v>275477.1709837492</v>
+        <v>353785.341146536</v>
       </c>
       <c r="AE3" t="n">
-        <v>376920.0185350211</v>
+        <v>484064.7116643921</v>
       </c>
       <c r="AF3" t="n">
         <v>9.97099065752336e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.7421875</v>
       </c>
       <c r="AH3" t="n">
-        <v>340947.3009766064</v>
+        <v>437866.2549722315</v>
       </c>
     </row>
     <row r="4">
@@ -2189,28 +2189,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>226.5484015052247</v>
+        <v>304.7882408304527</v>
       </c>
       <c r="AB4" t="n">
-        <v>309.9735175493945</v>
+        <v>417.0247174124191</v>
       </c>
       <c r="AC4" t="n">
-        <v>280.3900800851362</v>
+        <v>377.2244636804439</v>
       </c>
       <c r="AD4" t="n">
-        <v>226548.4015052248</v>
+        <v>304788.2408304527</v>
       </c>
       <c r="AE4" t="n">
-        <v>309973.5175493945</v>
+        <v>417024.7174124192</v>
       </c>
       <c r="AF4" t="n">
         <v>1.132223346785746e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.86067708333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>280390.0800851362</v>
+        <v>377224.4636804439</v>
       </c>
     </row>
     <row r="5">
@@ -2295,28 +2295,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>222.4379710491516</v>
+        <v>290.9576199415928</v>
       </c>
       <c r="AB5" t="n">
-        <v>304.3494452600046</v>
+        <v>398.1010517483506</v>
       </c>
       <c r="AC5" t="n">
-        <v>275.302761361609</v>
+        <v>360.1068461078225</v>
       </c>
       <c r="AD5" t="n">
-        <v>222437.9710491516</v>
+        <v>290957.6199415928</v>
       </c>
       <c r="AE5" t="n">
-        <v>304349.4452600046</v>
+        <v>398101.0517483506</v>
       </c>
       <c r="AF5" t="n">
         <v>1.152473908082457e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.61979166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>275302.761361609</v>
+        <v>360106.8461078225</v>
       </c>
     </row>
   </sheetData>
@@ -2592,28 +2592,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>381.1588797614169</v>
+        <v>487.5092697673401</v>
       </c>
       <c r="AB2" t="n">
-        <v>521.5183948325653</v>
+        <v>667.0316902867423</v>
       </c>
       <c r="AC2" t="n">
-        <v>471.7454111854087</v>
+        <v>603.371121950632</v>
       </c>
       <c r="AD2" t="n">
-        <v>381158.8797614169</v>
+        <v>487509.2697673402</v>
       </c>
       <c r="AE2" t="n">
-        <v>521518.3948325652</v>
+        <v>667031.6902867423</v>
       </c>
       <c r="AF2" t="n">
         <v>8.390172448991167e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.46875</v>
       </c>
       <c r="AH2" t="n">
-        <v>471745.4111854087</v>
+        <v>603371.121950632</v>
       </c>
     </row>
     <row r="3">
@@ -2698,28 +2698,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>234.2751340881464</v>
+        <v>301.9716583312018</v>
       </c>
       <c r="AB3" t="n">
-        <v>320.5455739487262</v>
+        <v>413.1709449780938</v>
       </c>
       <c r="AC3" t="n">
-        <v>289.9531542596935</v>
+        <v>373.738489878447</v>
       </c>
       <c r="AD3" t="n">
-        <v>234275.1340881464</v>
+        <v>301971.6583312018</v>
       </c>
       <c r="AE3" t="n">
-        <v>320545.5739487262</v>
+        <v>413170.9449780938</v>
       </c>
       <c r="AF3" t="n">
         <v>1.191036773090355e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.42057291666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>289953.1542596935</v>
+        <v>373738.489878447</v>
       </c>
     </row>
     <row r="4">
@@ -2804,28 +2804,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>215.1367066251451</v>
+        <v>282.9005506759045</v>
       </c>
       <c r="AB4" t="n">
-        <v>294.3595331660308</v>
+        <v>387.0770141262264</v>
       </c>
       <c r="AC4" t="n">
-        <v>266.2662724569511</v>
+        <v>350.13492716402</v>
       </c>
       <c r="AD4" t="n">
-        <v>215136.706625145</v>
+        <v>282900.5506759045</v>
       </c>
       <c r="AE4" t="n">
-        <v>294359.5331660308</v>
+        <v>387077.0141262264</v>
       </c>
       <c r="AF4" t="n">
         <v>1.244268351051383e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.80208333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>266266.2724569511</v>
+        <v>350134.92716402</v>
       </c>
     </row>
   </sheetData>
@@ -3101,28 +3101,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>218.6350133789466</v>
+        <v>293.3773820702762</v>
       </c>
       <c r="AB2" t="n">
-        <v>299.1460708009812</v>
+        <v>401.4118770451862</v>
       </c>
       <c r="AC2" t="n">
-        <v>270.5959896579712</v>
+        <v>363.1016908851007</v>
       </c>
       <c r="AD2" t="n">
-        <v>218635.0133789466</v>
+        <v>293377.3820702762</v>
       </c>
       <c r="AE2" t="n">
-        <v>299146.0708009813</v>
+        <v>401411.8770451862</v>
       </c>
       <c r="AF2" t="n">
         <v>1.576568365748375e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.20182291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>270595.9896579712</v>
+        <v>363101.6908851006</v>
       </c>
     </row>
   </sheetData>
@@ -3398,28 +3398,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>240.2699260458486</v>
+        <v>316.1304870736827</v>
       </c>
       <c r="AB2" t="n">
-        <v>328.7479127768059</v>
+        <v>432.5436791069953</v>
       </c>
       <c r="AC2" t="n">
-        <v>297.3726733820787</v>
+        <v>391.2623174518894</v>
       </c>
       <c r="AD2" t="n">
-        <v>240269.9260458486</v>
+        <v>316130.4870736827</v>
       </c>
       <c r="AE2" t="n">
-        <v>328747.9127768059</v>
+        <v>432543.6791069953</v>
       </c>
       <c r="AF2" t="n">
         <v>1.312218800534858e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.8203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>297372.6733820788</v>
+        <v>391262.3174518894</v>
       </c>
     </row>
     <row r="3">
@@ -3504,28 +3504,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>213.8659474320846</v>
+        <v>280.176618523735</v>
       </c>
       <c r="AB3" t="n">
-        <v>292.6208243761474</v>
+        <v>383.3500099842228</v>
       </c>
       <c r="AC3" t="n">
-        <v>264.6935035936806</v>
+        <v>346.763623066446</v>
       </c>
       <c r="AD3" t="n">
-        <v>213865.9474320846</v>
+        <v>280176.618523735</v>
       </c>
       <c r="AE3" t="n">
-        <v>292620.8243761474</v>
+        <v>383350.0099842228</v>
       </c>
       <c r="AF3" t="n">
         <v>1.442276885515581e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.39453125</v>
       </c>
       <c r="AH3" t="n">
-        <v>264693.5035936806</v>
+        <v>346763.623066446</v>
       </c>
     </row>
   </sheetData>
@@ -3801,28 +3801,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>226.6843985979846</v>
+        <v>300.6270243197004</v>
       </c>
       <c r="AB2" t="n">
-        <v>310.1595947714767</v>
+        <v>411.3311574024917</v>
       </c>
       <c r="AC2" t="n">
-        <v>280.5583983583041</v>
+        <v>372.0742890469024</v>
       </c>
       <c r="AD2" t="n">
-        <v>226684.3985979846</v>
+        <v>300627.0243197004</v>
       </c>
       <c r="AE2" t="n">
-        <v>310159.5947714768</v>
+        <v>411331.1574024917</v>
       </c>
       <c r="AF2" t="n">
         <v>1.67746112250383e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.3671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>280558.3983583041</v>
+        <v>372074.2890469024</v>
       </c>
     </row>
   </sheetData>
@@ -4098,28 +4098,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>410.2199512197607</v>
+        <v>516.9166816803701</v>
       </c>
       <c r="AB2" t="n">
-        <v>561.281034885859</v>
+        <v>707.2682086296001</v>
       </c>
       <c r="AC2" t="n">
-        <v>507.713160679232</v>
+        <v>639.7675234551555</v>
       </c>
       <c r="AD2" t="n">
-        <v>410219.9512197608</v>
+        <v>516916.68168037</v>
       </c>
       <c r="AE2" t="n">
-        <v>561281.034885859</v>
+        <v>707268.2086296</v>
       </c>
       <c r="AF2" t="n">
         <v>7.851050414090708e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.34765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>507713.160679232</v>
+        <v>639767.5234551554</v>
       </c>
     </row>
     <row r="3">
@@ -4204,28 +4204,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>242.3804196054893</v>
+        <v>320.0176837773256</v>
       </c>
       <c r="AB3" t="n">
-        <v>331.6355831735094</v>
+        <v>437.8623131279348</v>
       </c>
       <c r="AC3" t="n">
-        <v>299.9847485689926</v>
+        <v>396.0733485066201</v>
       </c>
       <c r="AD3" t="n">
-        <v>242380.4196054893</v>
+        <v>320017.6837773256</v>
       </c>
       <c r="AE3" t="n">
-        <v>331635.5831735093</v>
+        <v>437862.3131279348</v>
       </c>
       <c r="AF3" t="n">
         <v>1.13423224392157e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.77213541666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>299984.7485689926</v>
+        <v>396073.3485066201</v>
       </c>
     </row>
     <row r="4">
@@ -4310,28 +4310,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>216.6229566460877</v>
+        <v>284.5854575378777</v>
       </c>
       <c r="AB4" t="n">
-        <v>296.3930860134067</v>
+        <v>389.3823780276227</v>
       </c>
       <c r="AC4" t="n">
-        <v>268.1057458746835</v>
+        <v>352.2202703702656</v>
       </c>
       <c r="AD4" t="n">
-        <v>216622.9566460877</v>
+        <v>284585.4575378777</v>
       </c>
       <c r="AE4" t="n">
-        <v>296393.0860134067</v>
+        <v>389382.3780276228</v>
       </c>
       <c r="AF4" t="n">
         <v>1.220156198945291e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.73697916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>268105.7458746835</v>
+        <v>352220.2703702655</v>
       </c>
     </row>
   </sheetData>
@@ -4607,28 +4607,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>236.8148013707854</v>
+        <v>319.4189814124595</v>
       </c>
       <c r="AB2" t="n">
-        <v>324.0204587670439</v>
+        <v>437.0431421394408</v>
       </c>
       <c r="AC2" t="n">
-        <v>293.0964009479836</v>
+        <v>395.3323580475544</v>
       </c>
       <c r="AD2" t="n">
-        <v>236814.8013707854</v>
+        <v>319418.9814124595</v>
       </c>
       <c r="AE2" t="n">
-        <v>324020.4587670439</v>
+        <v>437043.1421394408</v>
       </c>
       <c r="AF2" t="n">
         <v>1.721571911802956e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.44791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>293096.4009479836</v>
+        <v>395332.3580475543</v>
       </c>
     </row>
   </sheetData>
@@ -4904,28 +4904,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>311.9153551891858</v>
+        <v>398.1440294338189</v>
       </c>
       <c r="AB2" t="n">
-        <v>426.7763497041322</v>
+        <v>544.758225946264</v>
       </c>
       <c r="AC2" t="n">
-        <v>386.0454138727378</v>
+        <v>492.7672654349238</v>
       </c>
       <c r="AD2" t="n">
-        <v>311915.3551891858</v>
+        <v>398144.0294338189</v>
       </c>
       <c r="AE2" t="n">
-        <v>426776.3497041322</v>
+        <v>544758.225946264</v>
       </c>
       <c r="AF2" t="n">
         <v>1.033328936186039e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.07291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>386045.4138727378</v>
+        <v>492767.2654349238</v>
       </c>
     </row>
     <row r="3">
@@ -5010,28 +5010,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>208.7478423174154</v>
+        <v>285.3870617486007</v>
       </c>
       <c r="AB3" t="n">
-        <v>285.6180071633986</v>
+        <v>390.4791682730159</v>
       </c>
       <c r="AC3" t="n">
-        <v>258.3590254271986</v>
+        <v>353.2123844939932</v>
       </c>
       <c r="AD3" t="n">
-        <v>208747.8423174154</v>
+        <v>285387.0617486007</v>
       </c>
       <c r="AE3" t="n">
-        <v>285618.0071633986</v>
+        <v>390479.1682730159</v>
       </c>
       <c r="AF3" t="n">
         <v>1.337654146115919e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.95833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>258359.0254271986</v>
+        <v>353212.3844939932</v>
       </c>
     </row>
   </sheetData>
@@ -5307,28 +5307,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>353.5008069035957</v>
+        <v>450.0117112378953</v>
       </c>
       <c r="AB2" t="n">
-        <v>483.6753993604364</v>
+        <v>615.7258764312264</v>
       </c>
       <c r="AC2" t="n">
-        <v>437.5140980881621</v>
+        <v>556.9618629613245</v>
       </c>
       <c r="AD2" t="n">
-        <v>353500.8069035957</v>
+        <v>450011.7112378952</v>
       </c>
       <c r="AE2" t="n">
-        <v>483675.3993604364</v>
+        <v>615725.8764312264</v>
       </c>
       <c r="AF2" t="n">
         <v>8.981292024248483e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.62890625</v>
       </c>
       <c r="AH2" t="n">
-        <v>437514.0980881621</v>
+        <v>556961.8629613245</v>
       </c>
     </row>
     <row r="3">
@@ -5413,28 +5413,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>226.6365125148985</v>
+        <v>294.1268257412065</v>
       </c>
       <c r="AB3" t="n">
-        <v>310.0940749200134</v>
+        <v>402.4372989388742</v>
       </c>
       <c r="AC3" t="n">
-        <v>280.4991316295067</v>
+        <v>364.0292479524437</v>
       </c>
       <c r="AD3" t="n">
-        <v>226636.5125148985</v>
+        <v>294126.8257412065</v>
       </c>
       <c r="AE3" t="n">
-        <v>310094.0749200134</v>
+        <v>402437.2989388742</v>
       </c>
       <c r="AF3" t="n">
         <v>1.249307386027558e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.10807291666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>280499.1316295067</v>
+        <v>364029.2479524437</v>
       </c>
     </row>
     <row r="4">
@@ -5519,28 +5519,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>212.9777340377611</v>
+        <v>280.5353670717733</v>
       </c>
       <c r="AB4" t="n">
-        <v>291.4055316248251</v>
+        <v>383.8408655745177</v>
       </c>
       <c r="AC4" t="n">
-        <v>263.59419667687</v>
+        <v>347.2076320881233</v>
       </c>
       <c r="AD4" t="n">
-        <v>212977.7340377611</v>
+        <v>280535.3670717733</v>
       </c>
       <c r="AE4" t="n">
-        <v>291405.5316248251</v>
+        <v>383840.8655745177</v>
       </c>
       <c r="AF4" t="n">
         <v>1.274865338793032e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.828125</v>
       </c>
       <c r="AH4" t="n">
-        <v>263594.1966768699</v>
+        <v>347207.6320881233</v>
       </c>
     </row>
   </sheetData>
@@ -5816,28 +5816,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>474.6487724320264</v>
+        <v>591.7013069267955</v>
       </c>
       <c r="AB2" t="n">
-        <v>649.435390467466</v>
+        <v>809.5918321565747</v>
       </c>
       <c r="AC2" t="n">
-        <v>587.4541882895458</v>
+        <v>732.3255239648233</v>
       </c>
       <c r="AD2" t="n">
-        <v>474648.7724320264</v>
+        <v>591701.3069267955</v>
       </c>
       <c r="AE2" t="n">
-        <v>649435.3904674661</v>
+        <v>809591.8321565747</v>
       </c>
       <c r="AF2" t="n">
         <v>6.87653671405105e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.30078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>587454.1882895457</v>
+        <v>732325.5239648233</v>
       </c>
     </row>
     <row r="3">
@@ -5922,28 +5922,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>267.8492084135989</v>
+        <v>345.8504030012832</v>
       </c>
       <c r="AB3" t="n">
-        <v>366.4831036245834</v>
+        <v>473.2077792292927</v>
       </c>
       <c r="AC3" t="n">
-        <v>331.5064705769188</v>
+        <v>428.0454929309376</v>
       </c>
       <c r="AD3" t="n">
-        <v>267849.2084135989</v>
+        <v>345850.4030012832</v>
       </c>
       <c r="AE3" t="n">
-        <v>366483.1036245833</v>
+        <v>473207.7792292926</v>
       </c>
       <c r="AF3" t="n">
         <v>1.038691764291684e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.4296875</v>
       </c>
       <c r="AH3" t="n">
-        <v>331506.4705769188</v>
+        <v>428045.4929309376</v>
       </c>
     </row>
     <row r="4">
@@ -6028,28 +6028,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>221.4212220321751</v>
+        <v>289.7610668695762</v>
       </c>
       <c r="AB4" t="n">
-        <v>302.9582843991772</v>
+        <v>396.4638750470215</v>
       </c>
       <c r="AC4" t="n">
-        <v>274.044370940832</v>
+        <v>358.6259192530764</v>
       </c>
       <c r="AD4" t="n">
-        <v>221421.2220321751</v>
+        <v>289761.0668695762</v>
       </c>
       <c r="AE4" t="n">
-        <v>302958.2843991772</v>
+        <v>396463.8750470215</v>
       </c>
       <c r="AF4" t="n">
         <v>1.169380418377622e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.70442708333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>274044.370940832</v>
+        <v>358625.9192530764</v>
       </c>
     </row>
     <row r="5">
@@ -6134,28 +6134,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>220.441135998988</v>
+        <v>288.7809808363891</v>
       </c>
       <c r="AB5" t="n">
-        <v>301.6172874502271</v>
+        <v>395.1228780980707</v>
       </c>
       <c r="AC5" t="n">
-        <v>272.8313568585882</v>
+        <v>357.4129051708324</v>
       </c>
       <c r="AD5" t="n">
-        <v>220441.135998988</v>
+        <v>288780.9808363891</v>
       </c>
       <c r="AE5" t="n">
-        <v>301617.2874502271</v>
+        <v>395122.8780980707</v>
       </c>
       <c r="AF5" t="n">
         <v>1.174795014215457e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.63932291666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>272831.3568585882</v>
+        <v>357412.9051708324</v>
       </c>
     </row>
   </sheetData>
@@ -6431,28 +6431,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>263.8577649318298</v>
+        <v>349.5012774159036</v>
       </c>
       <c r="AB2" t="n">
-        <v>361.0218345627683</v>
+        <v>478.2030666685879</v>
       </c>
       <c r="AC2" t="n">
-        <v>326.5664173694241</v>
+        <v>432.5640371479564</v>
       </c>
       <c r="AD2" t="n">
-        <v>263857.7649318298</v>
+        <v>349501.2774159036</v>
       </c>
       <c r="AE2" t="n">
-        <v>361021.8345627683</v>
+        <v>478203.0666685879</v>
       </c>
       <c r="AF2" t="n">
         <v>1.204462296126662e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.58203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>326566.4173694241</v>
+        <v>432564.0371479564</v>
       </c>
     </row>
     <row r="3">
@@ -6537,28 +6537,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>215.26177202124</v>
+        <v>281.8326461379806</v>
       </c>
       <c r="AB3" t="n">
-        <v>294.5306531584636</v>
+        <v>385.6158600248158</v>
       </c>
       <c r="AC3" t="n">
-        <v>266.4210609974746</v>
+        <v>348.8132235593053</v>
       </c>
       <c r="AD3" t="n">
-        <v>215261.77202124</v>
+        <v>281832.6461379806</v>
       </c>
       <c r="AE3" t="n">
-        <v>294530.6531584636</v>
+        <v>385615.8600248158</v>
       </c>
       <c r="AF3" t="n">
         <v>1.406198071473942e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.20572916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>266421.0609974746</v>
+        <v>348813.2235593053</v>
       </c>
     </row>
   </sheetData>
@@ -6834,28 +6834,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>210.9665006332668</v>
+        <v>286.1398021636631</v>
       </c>
       <c r="AB2" t="n">
-        <v>288.6536733514419</v>
+        <v>391.5091009174675</v>
       </c>
       <c r="AC2" t="n">
-        <v>261.1049718948402</v>
+        <v>354.144021812378</v>
       </c>
       <c r="AD2" t="n">
-        <v>210966.5006332668</v>
+        <v>286139.8021636631</v>
       </c>
       <c r="AE2" t="n">
-        <v>288653.6733514419</v>
+        <v>391509.1009174675</v>
       </c>
       <c r="AF2" t="n">
         <v>1.523482081029282e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.90885416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>261104.9718948402</v>
+        <v>354144.021812378</v>
       </c>
     </row>
     <row r="3">
@@ -6940,28 +6940,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>211.1633475118317</v>
+        <v>286.336649042228</v>
       </c>
       <c r="AB3" t="n">
-        <v>288.9230079349656</v>
+        <v>391.7784355009914</v>
       </c>
       <c r="AC3" t="n">
-        <v>261.348601563726</v>
+        <v>354.3876514812638</v>
       </c>
       <c r="AD3" t="n">
-        <v>211163.3475118317</v>
+        <v>286336.649042228</v>
       </c>
       <c r="AE3" t="n">
-        <v>288923.0079349656</v>
+        <v>391778.4355009914</v>
       </c>
       <c r="AF3" t="n">
         <v>1.526377771528627e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.8828125</v>
       </c>
       <c r="AH3" t="n">
-        <v>261348.601563726</v>
+        <v>354387.6514812638</v>
       </c>
     </row>
   </sheetData>
@@ -11690,28 +11690,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>217.8102809133247</v>
+        <v>292.2580202545458</v>
       </c>
       <c r="AB2" t="n">
-        <v>298.0176354568895</v>
+        <v>399.8803168261458</v>
       </c>
       <c r="AC2" t="n">
-        <v>269.5752505993503</v>
+        <v>361.7163006238072</v>
       </c>
       <c r="AD2" t="n">
-        <v>217810.2809133247</v>
+        <v>292258.0202545458</v>
       </c>
       <c r="AE2" t="n">
-        <v>298017.6354568895</v>
+        <v>399880.3168261457</v>
       </c>
       <c r="AF2" t="n">
         <v>1.625130143130903e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.69661458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>269575.2505993503</v>
+        <v>361716.3006238072</v>
       </c>
     </row>
   </sheetData>
@@ -11987,28 +11987,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>257.7487157386822</v>
+        <v>348.8243850340897</v>
       </c>
       <c r="AB2" t="n">
-        <v>352.6631639443079</v>
+        <v>477.2769126494059</v>
       </c>
       <c r="AC2" t="n">
-        <v>319.0054865434278</v>
+        <v>431.7262739684999</v>
       </c>
       <c r="AD2" t="n">
-        <v>257748.7157386822</v>
+        <v>348824.3850340897</v>
       </c>
       <c r="AE2" t="n">
-        <v>352663.1639443079</v>
+        <v>477276.9126494059</v>
       </c>
       <c r="AF2" t="n">
         <v>1.750163845198107e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.27734375</v>
       </c>
       <c r="AH2" t="n">
-        <v>319005.4865434277</v>
+        <v>431726.2739684999</v>
       </c>
     </row>
   </sheetData>
@@ -12284,28 +12284,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>326.8660650267268</v>
+        <v>423.036251530118</v>
       </c>
       <c r="AB2" t="n">
-        <v>447.2325704826231</v>
+        <v>578.8168623857545</v>
       </c>
       <c r="AC2" t="n">
-        <v>404.5493216506156</v>
+        <v>523.5753934142259</v>
       </c>
       <c r="AD2" t="n">
-        <v>326866.0650267268</v>
+        <v>423036.2515301179</v>
       </c>
       <c r="AE2" t="n">
-        <v>447232.5704826231</v>
+        <v>578816.8623857545</v>
       </c>
       <c r="AF2" t="n">
         <v>9.638957308179104e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.80208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>404549.3216506157</v>
+        <v>523575.3934142259</v>
       </c>
     </row>
     <row r="3">
@@ -12390,28 +12390,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>211.5385029414063</v>
+        <v>288.4336536415848</v>
       </c>
       <c r="AB3" t="n">
-        <v>289.4363121443988</v>
+        <v>394.6476497071451</v>
       </c>
       <c r="AC3" t="n">
-        <v>261.812916739838</v>
+        <v>356.9830319105496</v>
       </c>
       <c r="AD3" t="n">
-        <v>211538.5029414063</v>
+        <v>288433.6536415849</v>
       </c>
       <c r="AE3" t="n">
-        <v>289436.3121443987</v>
+        <v>394647.6497071452</v>
       </c>
       <c r="AF3" t="n">
         <v>1.299874288947625e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.9453125</v>
       </c>
       <c r="AH3" t="n">
-        <v>261812.916739838</v>
+        <v>356983.0319105496</v>
       </c>
     </row>
     <row r="4">
@@ -12496,28 +12496,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>211.0220919011003</v>
+        <v>287.9172426012788</v>
       </c>
       <c r="AB4" t="n">
-        <v>288.7297357766052</v>
+        <v>393.9410733393512</v>
       </c>
       <c r="AC4" t="n">
-        <v>261.1737750289003</v>
+        <v>356.3438901996118</v>
       </c>
       <c r="AD4" t="n">
-        <v>211022.0919011003</v>
+        <v>287917.2426012788</v>
       </c>
       <c r="AE4" t="n">
-        <v>288729.7357766052</v>
+        <v>393941.0733393512</v>
       </c>
       <c r="AF4" t="n">
         <v>1.306471929040155e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.87369791666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>261173.7750289003</v>
+        <v>356343.8901996118</v>
       </c>
     </row>
   </sheetData>
@@ -12793,28 +12793,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>441.5711188633327</v>
+        <v>548.6034157781874</v>
       </c>
       <c r="AB2" t="n">
-        <v>604.1770855716951</v>
+        <v>750.6233961422819</v>
       </c>
       <c r="AC2" t="n">
-        <v>546.5152724925971</v>
+        <v>678.9849527210149</v>
       </c>
       <c r="AD2" t="n">
-        <v>441571.1188633327</v>
+        <v>548603.4157781873</v>
       </c>
       <c r="AE2" t="n">
-        <v>604177.0855716951</v>
+        <v>750623.3961422818</v>
       </c>
       <c r="AF2" t="n">
         <v>7.342081901172108e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.3046875</v>
       </c>
       <c r="AH2" t="n">
-        <v>546515.2724925971</v>
+        <v>678984.9527210149</v>
       </c>
     </row>
     <row r="3">
@@ -12899,28 +12899,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>260.4092447338057</v>
+        <v>328.5303918956016</v>
       </c>
       <c r="AB3" t="n">
-        <v>356.303417089858</v>
+        <v>449.5097759295368</v>
       </c>
       <c r="AC3" t="n">
-        <v>322.2983190377878</v>
+        <v>406.6091938057539</v>
       </c>
       <c r="AD3" t="n">
-        <v>260409.2447338057</v>
+        <v>328530.3918956015</v>
       </c>
       <c r="AE3" t="n">
-        <v>356303.417089858</v>
+        <v>449509.7759295368</v>
       </c>
       <c r="AF3" t="n">
         <v>1.082547062830077e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.13020833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>322298.3190377878</v>
+        <v>406609.193805754</v>
       </c>
     </row>
     <row r="4">
@@ -13005,28 +13005,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>217.8746779981626</v>
+        <v>286.0289795488847</v>
       </c>
       <c r="AB4" t="n">
-        <v>298.1057463893635</v>
+        <v>391.3574685267791</v>
       </c>
       <c r="AC4" t="n">
-        <v>269.6549523480934</v>
+        <v>354.0068610042394</v>
       </c>
       <c r="AD4" t="n">
-        <v>217874.6779981626</v>
+        <v>286028.9795488847</v>
       </c>
       <c r="AE4" t="n">
-        <v>298105.7463893635</v>
+        <v>391357.4685267792</v>
       </c>
       <c r="AF4" t="n">
         <v>1.200596913324118e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.63932291666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>269654.9523480934</v>
+        <v>354006.8610042394</v>
       </c>
     </row>
     <row r="5">
@@ -13111,28 +13111,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>218.2638037784317</v>
+        <v>286.4181053291538</v>
       </c>
       <c r="AB5" t="n">
-        <v>298.6381654489451</v>
+        <v>391.8898875863612</v>
       </c>
       <c r="AC5" t="n">
-        <v>270.1365580798837</v>
+        <v>354.4884667360297</v>
       </c>
       <c r="AD5" t="n">
-        <v>218263.8037784317</v>
+        <v>286418.1053291538</v>
       </c>
       <c r="AE5" t="n">
-        <v>298638.1654489451</v>
+        <v>391889.8875863611</v>
       </c>
       <c r="AF5" t="n">
         <v>1.200445986602839e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.63932291666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>270136.5580798837</v>
+        <v>354488.4667360297</v>
       </c>
     </row>
   </sheetData>
@@ -13408,28 +13408,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>302.3963866556473</v>
+        <v>410.6509337220079</v>
       </c>
       <c r="AB2" t="n">
-        <v>413.7520770092914</v>
+        <v>561.8707241590397</v>
       </c>
       <c r="AC2" t="n">
-        <v>374.2641594842112</v>
+        <v>508.2465708358143</v>
       </c>
       <c r="AD2" t="n">
-        <v>302396.3866556473</v>
+        <v>410650.9337220079</v>
       </c>
       <c r="AE2" t="n">
-        <v>413752.0770092914</v>
+        <v>561870.7241590397</v>
       </c>
       <c r="AF2" t="n">
         <v>1.7056584236874e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.29427083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>374264.1594842112</v>
+        <v>508246.5708358143</v>
       </c>
     </row>
   </sheetData>
@@ -13705,28 +13705,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>228.2712703727683</v>
+        <v>303.7146480304021</v>
       </c>
       <c r="AB2" t="n">
-        <v>312.3308227415765</v>
+        <v>415.5557803798184</v>
       </c>
       <c r="AC2" t="n">
-        <v>282.5224073782758</v>
+        <v>375.8957199365685</v>
       </c>
       <c r="AD2" t="n">
-        <v>228271.2703727683</v>
+        <v>303714.6480304021</v>
       </c>
       <c r="AE2" t="n">
-        <v>312330.8227415765</v>
+        <v>415555.7803798183</v>
       </c>
       <c r="AF2" t="n">
         <v>1.425513429153657e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.1953125</v>
       </c>
       <c r="AH2" t="n">
-        <v>282522.4073782758</v>
+        <v>375895.7199365685</v>
       </c>
     </row>
     <row r="3">
@@ -13811,28 +13811,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>212.0772678917612</v>
+        <v>287.5879653570993</v>
       </c>
       <c r="AB3" t="n">
-        <v>290.173474118106</v>
+        <v>393.4905416871779</v>
       </c>
       <c r="AC3" t="n">
-        <v>262.4797250093882</v>
+        <v>355.9363566559967</v>
       </c>
       <c r="AD3" t="n">
-        <v>212077.2678917612</v>
+        <v>287587.9653570993</v>
       </c>
       <c r="AE3" t="n">
-        <v>290173.474118106</v>
+        <v>393490.541687178</v>
       </c>
       <c r="AF3" t="n">
         <v>1.486495648058592e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.5703125</v>
       </c>
       <c r="AH3" t="n">
-        <v>262479.7250093882</v>
+        <v>355936.3566559968</v>
       </c>
     </row>
   </sheetData>
@@ -14108,28 +14108,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>287.2587084172446</v>
+        <v>373.1517547328591</v>
       </c>
       <c r="AB2" t="n">
-        <v>393.0400378162778</v>
+        <v>510.5626931190671</v>
       </c>
       <c r="AC2" t="n">
-        <v>355.5288482422492</v>
+        <v>461.8353062670231</v>
       </c>
       <c r="AD2" t="n">
-        <v>287258.7084172446</v>
+        <v>373151.7547328591</v>
       </c>
       <c r="AE2" t="n">
-        <v>393040.0378162778</v>
+        <v>510562.6931190671</v>
       </c>
       <c r="AF2" t="n">
         <v>1.114545725445092e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.3046875</v>
       </c>
       <c r="AH2" t="n">
-        <v>355528.8482422492</v>
+        <v>461835.3062670231</v>
       </c>
     </row>
     <row r="3">
@@ -14214,28 +14214,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>216.864486478928</v>
+        <v>283.6818023150815</v>
       </c>
       <c r="AB3" t="n">
-        <v>296.7235577862429</v>
+        <v>388.1459570853383</v>
       </c>
       <c r="AC3" t="n">
-        <v>268.4046778853403</v>
+        <v>351.1018517073851</v>
       </c>
       <c r="AD3" t="n">
-        <v>216864.486478928</v>
+        <v>283681.8023150815</v>
       </c>
       <c r="AE3" t="n">
-        <v>296723.5577862429</v>
+        <v>388145.9570853383</v>
       </c>
       <c r="AF3" t="n">
         <v>1.37058641079772e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.06901041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>268404.6778853403</v>
+        <v>351101.8517073851</v>
       </c>
     </row>
   </sheetData>
